--- a/RNN/dataset/종설(testset)수작업.xlsx
+++ b/RNN/dataset/종설(testset)수작업.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qkrtm\Desktop\KAU\4-1\종설\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qkrtm\Desktop\KAU\4-1\Jongsul\gitJongsul\RNN\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C23D565-A2B6-43EF-AB31-A5E29D83D253}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C62D5B-FB2F-41B7-A94D-546E59525AED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="180" windowWidth="15924" windowHeight="11976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7536" yWindow="588" windowWidth="14712" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="63">
   <si>
     <t>성별</t>
   </si>
@@ -73,6 +73,202 @@
   </si>
   <si>
     <t>2020-06-31  12:31:00 PM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>섭취음식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡곡밥(210g), 김(2봉)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곤약잡채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초코파이(1개)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목삼겹 바비큐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간짜장+탕수육</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야채비빔밥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언빌리버블 버거 ,사이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부추고기전(밀가루X)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김밥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고르곤졸라 피자,사이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나랑드 사이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치킨너겟(13개)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간장오뎅조림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>군고구마(3개)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통삼겹살 한근</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아메리카노</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치즈스틱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭가슴살양배추볶음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옛날소시지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오렌지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭가슴살 샌드위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갈비탕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호치킨 반반(6조각)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>훈제오리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진라면(+계란1개)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우유(200ml)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새우볶음밥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베이글+크림치즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제로콜라찜닭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수박</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물냉면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헬로아이스크림(저당)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무쌈말이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼계탕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알리오 올리오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짜장밥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블루베리 쉐이크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콩국수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>족발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강된장 쌈밥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흰쌀밥+김2봉지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복숭아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두부볶음밥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흰쌀밥+사과식초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안남미(베트남쌀)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -125,7 +321,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -138,6 +334,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -453,22 +652,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I148"/>
+  <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="G118" sqref="G118"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" width="20.69921875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.69921875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="18.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="22.69921875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="13.69921875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.69921875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.69921875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.69921875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="22.69921875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="13.69921875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,22 +682,25 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -510,23 +713,26 @@
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2">
         <v>340</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
         <v>43955.396527777775</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>110</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>106</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -539,23 +745,26 @@
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2">
         <v>183</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
         <v>43956.396527777775</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>116</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>131</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -568,23 +777,26 @@
       <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2">
         <v>171</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
         <v>43957.396527777775</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>111</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>107</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -597,23 +809,26 @@
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2">
         <v>460</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>43958.396527777775</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>119</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>131</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -626,23 +841,26 @@
       <c r="D6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2">
         <v>1018</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>43958.521527777775</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>103</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>128</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -655,23 +873,26 @@
       <c r="D7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2">
         <v>363</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>43959.396527777775</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>108</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>120</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -684,23 +905,26 @@
       <c r="D8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="2">
         <v>688</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>43959.521527777775</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>91</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>118</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J8" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -713,23 +937,26 @@
       <c r="D9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="2">
         <v>280</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>43960.396527777775</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <v>114</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9" s="2">
         <v>130</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J9" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -742,23 +969,26 @@
       <c r="D10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="2">
         <v>318</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>43960.65625</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <v>106</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I10" s="2">
         <v>128</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J10" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
@@ -771,23 +1001,26 @@
       <c r="D11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="2">
         <v>410</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>43960.521527777775</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <v>108</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="2">
         <v>128</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J11" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
@@ -800,23 +1033,26 @@
       <c r="D12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="2">
         <v>0</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>43961.354861111111</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="2">
         <v>110</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="2">
         <v>113</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J12" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -829,23 +1065,26 @@
       <c r="D13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="2">
         <v>780</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>43961.479861111111</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H13" s="2">
         <v>101</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I13" s="2">
         <v>120</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J13" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
@@ -858,23 +1097,26 @@
       <c r="D14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="2">
         <v>240</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>43962.479861111111</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H14" s="2">
         <v>108</v>
       </c>
-      <c r="H14" s="2">
+      <c r="I14" s="2">
         <v>122</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J14" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
@@ -887,23 +1129,26 @@
       <c r="D15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="2">
         <v>370</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="4">
         <v>43963.479861111111</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H15" s="2">
         <v>106</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I15" s="2">
         <v>139</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J15" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
@@ -916,23 +1161,26 @@
       <c r="D16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="2">
         <v>801</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>43963.813194444447</v>
       </c>
-      <c r="G16" s="2">
+      <c r="H16" s="2">
         <v>120</v>
       </c>
-      <c r="H16" s="2">
+      <c r="I16" s="2">
         <v>124</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J16" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
@@ -945,23 +1193,26 @@
       <c r="D17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="2">
         <v>15</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>43964.479861111111</v>
       </c>
-      <c r="G17" s="2">
+      <c r="H17" s="2">
         <v>97</v>
       </c>
-      <c r="H17" s="2">
+      <c r="I17" s="2">
         <v>93</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J17" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
@@ -974,23 +1225,26 @@
       <c r="D18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="2">
         <v>105</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>43965.438194444447</v>
       </c>
-      <c r="G18" s="2">
+      <c r="H18" s="2">
         <v>113</v>
       </c>
-      <c r="H18" s="2">
+      <c r="I18" s="2">
         <v>107</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J18" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
@@ -1003,23 +1257,26 @@
       <c r="D19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="2">
         <v>201</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <v>43966.438194444447</v>
       </c>
-      <c r="G19" s="2">
+      <c r="H19" s="2">
         <v>99</v>
       </c>
-      <c r="H19" s="2">
+      <c r="I19" s="2">
         <v>116</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J19" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
@@ -1032,23 +1289,26 @@
       <c r="D20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="2">
         <v>193</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <v>43967.438194444447</v>
       </c>
-      <c r="G20" s="2">
+      <c r="H20" s="2">
         <v>114</v>
       </c>
-      <c r="H20" s="2">
+      <c r="I20" s="2">
         <v>136</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J20" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>2</v>
       </c>
@@ -1061,23 +1321,26 @@
       <c r="D21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="2">
         <v>88</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <v>43967.688194444447</v>
       </c>
-      <c r="G21" s="2">
+      <c r="H21" s="2">
         <v>114</v>
       </c>
-      <c r="H21" s="2">
+      <c r="I21" s="2">
         <v>110</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J21" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
@@ -1090,23 +1353,26 @@
       <c r="D22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="2">
         <v>446</v>
       </c>
-      <c r="F22" s="4">
+      <c r="G22" s="4">
         <v>43968.396527777775</v>
       </c>
-      <c r="G22" s="2">
+      <c r="H22" s="2">
         <v>108</v>
       </c>
-      <c r="H22" s="2">
+      <c r="I22" s="2">
         <v>130</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J22" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
@@ -1119,23 +1385,26 @@
       <c r="D23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="2">
         <v>466</v>
       </c>
-      <c r="F23" s="4">
+      <c r="G23" s="4">
         <v>43968.896527777775</v>
       </c>
-      <c r="G23" s="2">
+      <c r="H23" s="2">
         <v>116</v>
       </c>
-      <c r="H23" s="2">
+      <c r="I23" s="2">
         <v>122</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J23" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>2</v>
       </c>
@@ -1148,23 +1417,26 @@
       <c r="D24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="2">
         <v>400</v>
       </c>
-      <c r="F24" s="4">
+      <c r="G24" s="4">
         <v>43969.896527777775</v>
       </c>
-      <c r="G24" s="2">
+      <c r="H24" s="2">
         <v>117</v>
       </c>
-      <c r="H24" s="2">
+      <c r="I24" s="2">
         <v>134</v>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J24" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>2</v>
       </c>
@@ -1177,23 +1449,26 @@
       <c r="D25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="2">
         <v>319</v>
       </c>
-      <c r="F25" s="4">
+      <c r="G25" s="4">
         <v>43970.896527777775</v>
       </c>
-      <c r="G25" s="2">
+      <c r="H25" s="2">
         <v>103</v>
       </c>
-      <c r="H25" s="2">
+      <c r="I25" s="2">
         <v>123</v>
       </c>
-      <c r="I25" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J25" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
@@ -1206,23 +1481,26 @@
       <c r="D26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="2">
         <v>568</v>
       </c>
-      <c r="F26" s="4">
+      <c r="G26" s="4">
         <v>43971.896527777775</v>
       </c>
-      <c r="G26" s="2">
+      <c r="H26" s="2">
         <v>113</v>
       </c>
-      <c r="H26" s="2">
+      <c r="I26" s="2">
         <v>107</v>
       </c>
-      <c r="I26" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J26" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>2</v>
       </c>
@@ -1235,23 +1513,26 @@
       <c r="D27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="2">
         <v>122</v>
       </c>
-      <c r="F27" s="4">
+      <c r="G27" s="4">
         <v>43972.396527777775</v>
       </c>
-      <c r="G27" s="2">
+      <c r="H27" s="2">
         <v>120</v>
       </c>
-      <c r="H27" s="2">
+      <c r="I27" s="2">
         <v>115</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J27" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>2</v>
       </c>
@@ -1264,23 +1545,26 @@
       <c r="D28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="2">
         <v>486</v>
       </c>
-      <c r="F28" s="4">
+      <c r="G28" s="4">
         <v>43973.396527777775</v>
       </c>
-      <c r="G28" s="2">
+      <c r="H28" s="2">
         <v>103</v>
       </c>
-      <c r="H28" s="2">
+      <c r="I28" s="2">
         <v>127</v>
       </c>
-      <c r="I28" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J28" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>2</v>
       </c>
@@ -1293,23 +1577,26 @@
       <c r="D29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="2">
         <v>397</v>
       </c>
-      <c r="F29" s="4">
+      <c r="G29" s="4">
         <v>43973.479861111111</v>
       </c>
-      <c r="G29" s="2">
+      <c r="H29" s="2">
         <v>120</v>
       </c>
-      <c r="H29" s="2">
+      <c r="I29" s="2">
         <v>132</v>
       </c>
-      <c r="I29" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J29" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>2</v>
       </c>
@@ -1322,23 +1609,26 @@
       <c r="D30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="2">
         <v>385</v>
       </c>
-      <c r="F30" s="4">
+      <c r="G30" s="4">
         <v>43974.396527777775</v>
       </c>
-      <c r="G30" s="2">
+      <c r="H30" s="2">
         <v>93</v>
       </c>
-      <c r="H30" s="2">
+      <c r="I30" s="2">
         <v>114</v>
       </c>
-      <c r="I30" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J30" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>2</v>
       </c>
@@ -1351,23 +1641,26 @@
       <c r="D31" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="2">
         <v>90</v>
       </c>
-      <c r="F31" s="4">
+      <c r="G31" s="4">
         <v>43974.479861111111</v>
       </c>
-      <c r="G31" s="2">
+      <c r="H31" s="2">
         <v>102</v>
       </c>
-      <c r="H31" s="2">
+      <c r="I31" s="2">
         <v>96</v>
       </c>
-      <c r="I31" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J31" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>2</v>
       </c>
@@ -1380,23 +1673,26 @@
       <c r="D32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="2">
         <v>30</v>
       </c>
-      <c r="F32" s="4">
+      <c r="G32" s="4">
         <v>43975.396527777775</v>
       </c>
-      <c r="G32" s="2">
+      <c r="H32" s="2">
         <v>93</v>
       </c>
-      <c r="H32" s="2">
+      <c r="I32" s="2">
         <v>106</v>
       </c>
-      <c r="I32" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J32" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>2</v>
       </c>
@@ -1409,23 +1705,26 @@
       <c r="D33" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="2">
         <v>382</v>
       </c>
-      <c r="F33" s="4">
+      <c r="G33" s="4">
         <v>43975.479861111111</v>
       </c>
-      <c r="G33" s="2">
+      <c r="H33" s="2">
         <v>104</v>
       </c>
-      <c r="H33" s="2">
+      <c r="I33" s="2">
         <v>148</v>
       </c>
-      <c r="I33" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J33" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>2</v>
       </c>
@@ -1438,23 +1737,26 @@
       <c r="D34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="2">
         <v>66</v>
       </c>
-      <c r="F34" s="4">
+      <c r="G34" s="4">
         <v>43975.896527777775</v>
       </c>
-      <c r="G34" s="2">
+      <c r="H34" s="2">
         <v>103</v>
       </c>
-      <c r="H34" s="2">
+      <c r="I34" s="2">
         <v>106</v>
       </c>
-      <c r="I34" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J34" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>2</v>
       </c>
@@ -1467,23 +1769,26 @@
       <c r="D35" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" s="2">
         <v>300</v>
       </c>
-      <c r="F35" s="4">
+      <c r="G35" s="4">
         <v>43976.896527777775</v>
       </c>
-      <c r="G35" s="2">
+      <c r="H35" s="2">
         <v>107</v>
       </c>
-      <c r="H35" s="2">
+      <c r="I35" s="2">
         <v>139</v>
       </c>
-      <c r="I35" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J35" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>2</v>
       </c>
@@ -1496,23 +1801,26 @@
       <c r="D36" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" s="2">
         <v>560</v>
       </c>
-      <c r="F36" s="4">
+      <c r="G36" s="4">
         <v>43977.896527777775</v>
       </c>
-      <c r="G36" s="2">
+      <c r="H36" s="2">
         <v>100</v>
       </c>
-      <c r="H36" s="2">
+      <c r="I36" s="2">
         <v>116</v>
       </c>
-      <c r="I36" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J36" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>2</v>
       </c>
@@ -1525,23 +1833,26 @@
       <c r="D37" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="2">
         <v>402</v>
       </c>
-      <c r="F37" s="4">
+      <c r="G37" s="4">
         <v>43978.396527777775</v>
       </c>
-      <c r="G37" s="2">
+      <c r="H37" s="2">
         <v>114</v>
       </c>
-      <c r="H37" s="2">
+      <c r="I37" s="2">
         <v>115</v>
       </c>
-      <c r="I37" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J37" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>2</v>
       </c>
@@ -1554,23 +1865,26 @@
       <c r="D38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" s="2">
         <v>495</v>
       </c>
-      <c r="F38" s="4">
+      <c r="G38" s="4">
         <v>43978.896527777775</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>93</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>106</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J38" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>2</v>
       </c>
@@ -1583,23 +1897,26 @@
       <c r="D39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F39" s="2">
         <v>90</v>
       </c>
-      <c r="F39" s="4">
+      <c r="G39" s="4">
         <v>43979.604861111111</v>
       </c>
-      <c r="G39" s="2">
+      <c r="H39" s="2">
         <v>99</v>
       </c>
-      <c r="H39" s="2">
+      <c r="I39" s="2">
         <v>102</v>
       </c>
-      <c r="I39" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J39" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>2</v>
       </c>
@@ -1612,23 +1929,26 @@
       <c r="D40" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F40" s="2">
         <v>513</v>
       </c>
-      <c r="F40" s="4">
+      <c r="G40" s="4">
         <v>43979.896527777775</v>
       </c>
-      <c r="G40" s="2">
+      <c r="H40" s="2">
         <v>105</v>
       </c>
-      <c r="H40" s="2">
+      <c r="I40" s="2">
         <v>152</v>
       </c>
-      <c r="I40" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J40" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>2</v>
       </c>
@@ -1641,23 +1961,26 @@
       <c r="D41" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F41" s="2">
         <v>62</v>
       </c>
-      <c r="F41" s="4">
+      <c r="G41" s="4">
         <v>43980.563194444447</v>
       </c>
-      <c r="G41" s="2">
+      <c r="H41" s="2">
         <v>95</v>
       </c>
-      <c r="H41" s="2">
+      <c r="I41" s="2">
         <v>105</v>
       </c>
-      <c r="I41" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J41" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>2</v>
       </c>
@@ -1670,23 +1993,26 @@
       <c r="D42" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" s="2">
         <v>394</v>
       </c>
-      <c r="F42" s="4">
+      <c r="G42" s="4">
         <v>43980.729861111111</v>
       </c>
-      <c r="G42" s="2">
+      <c r="H42" s="2">
         <v>105</v>
       </c>
-      <c r="H42" s="2">
+      <c r="I42" s="2">
         <v>116</v>
       </c>
-      <c r="I42" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J42" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>2</v>
       </c>
@@ -1699,23 +2025,26 @@
       <c r="D43" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F43" s="2">
         <v>355</v>
       </c>
-      <c r="F43" s="4">
+      <c r="G43" s="4">
         <v>43980.854861111111</v>
       </c>
-      <c r="G43" s="2">
+      <c r="H43" s="2">
         <v>102</v>
       </c>
-      <c r="H43" s="2">
+      <c r="I43" s="2">
         <v>120</v>
       </c>
-      <c r="I43" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J43" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>2</v>
       </c>
@@ -1728,23 +2057,26 @@
       <c r="D44" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F44" s="2">
         <v>370</v>
       </c>
-      <c r="F44" s="4">
+      <c r="G44" s="4">
         <v>43980.938194444447</v>
       </c>
-      <c r="G44" s="2">
+      <c r="H44" s="2">
         <v>95</v>
       </c>
-      <c r="H44" s="2">
+      <c r="I44" s="2">
         <v>172</v>
       </c>
-      <c r="I44" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J44" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>2</v>
       </c>
@@ -1757,23 +2089,26 @@
       <c r="D45" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F45" s="2">
         <v>91</v>
       </c>
-      <c r="F45" s="4">
+      <c r="G45" s="4">
         <v>43981.438194444447</v>
       </c>
-      <c r="G45" s="2">
+      <c r="H45" s="2">
         <v>102</v>
       </c>
-      <c r="H45" s="2">
+      <c r="I45" s="2">
         <v>115</v>
       </c>
-      <c r="I45" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J45" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>2</v>
       </c>
@@ -1786,23 +2121,26 @@
       <c r="D46" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F46" s="2">
         <v>290</v>
       </c>
-      <c r="F46" s="4">
+      <c r="G46" s="4">
         <v>43981.521527777775</v>
       </c>
-      <c r="G46" s="2">
+      <c r="H46" s="2">
         <v>100</v>
       </c>
-      <c r="H46" s="2">
+      <c r="I46" s="2">
         <v>119</v>
       </c>
-      <c r="I46" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J46" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>2</v>
       </c>
@@ -1815,23 +2153,26 @@
       <c r="D47" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F47" s="2">
         <v>312</v>
       </c>
-      <c r="F47" s="4">
+      <c r="G47" s="4">
         <v>43981.854861111111</v>
       </c>
-      <c r="G47" s="2">
+      <c r="H47" s="2">
         <v>107</v>
       </c>
-      <c r="H47" s="2">
+      <c r="I47" s="2">
         <v>159</v>
       </c>
-      <c r="I47" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J47" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>2</v>
       </c>
@@ -1844,23 +2185,26 @@
       <c r="D48" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F48" s="2">
         <v>114</v>
       </c>
-      <c r="F48" s="4">
+      <c r="G48" s="4">
         <v>43982.396527777775</v>
       </c>
-      <c r="G48" s="2">
+      <c r="H48" s="2">
         <v>105</v>
       </c>
-      <c r="H48" s="2">
+      <c r="I48" s="2">
         <v>145</v>
       </c>
-      <c r="I48" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J48" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>2</v>
       </c>
@@ -1873,23 +2217,26 @@
       <c r="D49" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F49" s="2">
         <v>513</v>
       </c>
-      <c r="F49" s="4">
+      <c r="G49" s="4">
         <v>43982.521527777775</v>
       </c>
-      <c r="G49" s="2">
+      <c r="H49" s="2">
         <v>100</v>
       </c>
-      <c r="H49" s="2">
+      <c r="I49" s="2">
         <v>128</v>
       </c>
-      <c r="I49" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J49" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>2</v>
       </c>
@@ -1902,23 +2249,26 @@
       <c r="D50" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F50" s="2">
         <v>265</v>
       </c>
-      <c r="F50" s="4">
+      <c r="G50" s="4">
         <v>43983.896527777775</v>
       </c>
-      <c r="G50" s="2">
+      <c r="H50" s="2">
         <v>111</v>
       </c>
-      <c r="H50" s="2">
+      <c r="I50" s="2">
         <v>129</v>
       </c>
-      <c r="I50" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J50" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>2</v>
       </c>
@@ -1931,23 +2281,23 @@
       <c r="D51" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E51" s="2">
+      <c r="F51" s="2">
         <v>340</v>
       </c>
-      <c r="F51" s="4">
+      <c r="G51" s="4">
         <v>43984.396527777775</v>
       </c>
-      <c r="G51" s="2">
+      <c r="H51" s="2">
         <v>110</v>
       </c>
-      <c r="H51" s="2">
+      <c r="I51" s="2">
         <v>106</v>
       </c>
-      <c r="I51" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J51" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>2</v>
       </c>
@@ -1960,23 +2310,23 @@
       <c r="D52" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="2">
+      <c r="F52" s="2">
         <v>183</v>
       </c>
-      <c r="F52" s="4">
+      <c r="G52" s="4">
         <v>43985.396527777775</v>
       </c>
-      <c r="G52" s="2">
+      <c r="H52" s="2">
         <v>116</v>
       </c>
-      <c r="H52" s="2">
+      <c r="I52" s="2">
         <v>131</v>
       </c>
-      <c r="I52" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J52" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>2</v>
       </c>
@@ -1989,23 +2339,23 @@
       <c r="D53" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E53" s="2">
+      <c r="F53" s="2">
         <v>171</v>
       </c>
-      <c r="F53" s="4">
+      <c r="G53" s="4">
         <v>43986.396527777775</v>
       </c>
-      <c r="G53" s="2">
+      <c r="H53" s="2">
         <v>111</v>
       </c>
-      <c r="H53" s="2">
+      <c r="I53" s="2">
         <v>107</v>
       </c>
-      <c r="I53" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J53" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>2</v>
       </c>
@@ -2018,23 +2368,23 @@
       <c r="D54" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E54" s="2">
+      <c r="F54" s="2">
         <v>460</v>
       </c>
-      <c r="F54" s="4">
+      <c r="G54" s="4">
         <v>43987.396527777775</v>
       </c>
-      <c r="G54" s="2">
+      <c r="H54" s="2">
         <v>119</v>
       </c>
-      <c r="H54" s="2">
+      <c r="I54" s="2">
         <v>131</v>
       </c>
-      <c r="I54" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J54" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>2</v>
       </c>
@@ -2047,23 +2397,23 @@
       <c r="D55" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E55" s="2">
+      <c r="F55" s="2">
         <v>1018</v>
       </c>
-      <c r="F55" s="4">
+      <c r="G55" s="4">
         <v>43987.521527777775</v>
       </c>
-      <c r="G55" s="2">
+      <c r="H55" s="2">
         <v>103</v>
       </c>
-      <c r="H55" s="2">
+      <c r="I55" s="2">
         <v>128</v>
       </c>
-      <c r="I55" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J55" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>2</v>
       </c>
@@ -2076,23 +2426,23 @@
       <c r="D56" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E56" s="2">
+      <c r="F56" s="2">
         <v>363</v>
       </c>
-      <c r="F56" s="4">
+      <c r="G56" s="4">
         <v>43988.396527777775</v>
       </c>
-      <c r="G56" s="2">
+      <c r="H56" s="2">
         <v>108</v>
       </c>
-      <c r="H56" s="2">
+      <c r="I56" s="2">
         <v>120</v>
       </c>
-      <c r="I56" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J56" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
         <v>2</v>
       </c>
@@ -2105,23 +2455,23 @@
       <c r="D57" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E57" s="2">
+      <c r="F57" s="2">
         <v>688</v>
       </c>
-      <c r="F57" s="4">
+      <c r="G57" s="4">
         <v>43988.521527777775</v>
       </c>
-      <c r="G57" s="2">
+      <c r="H57" s="2">
         <v>91</v>
       </c>
-      <c r="H57" s="2">
+      <c r="I57" s="2">
         <v>118</v>
       </c>
-      <c r="I57" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J57" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
         <v>2</v>
       </c>
@@ -2134,23 +2484,23 @@
       <c r="D58" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="2">
+      <c r="F58" s="2">
         <v>280</v>
       </c>
-      <c r="F58" s="4">
+      <c r="G58" s="4">
         <v>43989.396527777775</v>
       </c>
-      <c r="G58" s="2">
+      <c r="H58" s="2">
         <v>114</v>
       </c>
-      <c r="H58" s="2">
+      <c r="I58" s="2">
         <v>130</v>
       </c>
-      <c r="I58" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J58" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
         <v>2</v>
       </c>
@@ -2163,23 +2513,23 @@
       <c r="D59" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E59" s="2">
+      <c r="F59" s="2">
         <v>318</v>
       </c>
-      <c r="F59" s="4">
+      <c r="G59" s="4">
         <v>43990.65625</v>
       </c>
-      <c r="G59" s="2">
+      <c r="H59" s="2">
         <v>106</v>
       </c>
-      <c r="H59" s="2">
+      <c r="I59" s="2">
         <v>128</v>
       </c>
-      <c r="I59" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J59" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
         <v>2</v>
       </c>
@@ -2192,23 +2542,23 @@
       <c r="D60" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E60" s="2">
+      <c r="F60" s="2">
         <v>410</v>
       </c>
-      <c r="F60" s="4">
+      <c r="G60" s="4">
         <v>43990.521527777775</v>
       </c>
-      <c r="G60" s="2">
+      <c r="H60" s="2">
         <v>108</v>
       </c>
-      <c r="H60" s="2">
+      <c r="I60" s="2">
         <v>128</v>
       </c>
-      <c r="I60" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J60" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
         <v>2</v>
       </c>
@@ -2221,23 +2571,23 @@
       <c r="D61" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E61" s="2">
+      <c r="F61" s="2">
         <v>0</v>
       </c>
-      <c r="F61" s="4">
+      <c r="G61" s="4">
         <v>43991.354861111111</v>
       </c>
-      <c r="G61" s="2">
+      <c r="H61" s="2">
         <v>110</v>
       </c>
-      <c r="H61" s="2">
+      <c r="I61" s="2">
         <v>113</v>
       </c>
-      <c r="I61" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J61" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
         <v>2</v>
       </c>
@@ -2250,23 +2600,23 @@
       <c r="D62" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E62" s="2">
+      <c r="F62" s="2">
         <v>780</v>
       </c>
-      <c r="F62" s="4">
+      <c r="G62" s="4">
         <v>43991.479861111111</v>
       </c>
-      <c r="G62" s="2">
+      <c r="H62" s="2">
         <v>101</v>
       </c>
-      <c r="H62" s="2">
+      <c r="I62" s="2">
         <v>120</v>
       </c>
-      <c r="I62" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J62" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
         <v>2</v>
       </c>
@@ -2279,23 +2629,23 @@
       <c r="D63" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E63" s="2">
+      <c r="F63" s="2">
         <v>240</v>
       </c>
-      <c r="F63" s="4">
+      <c r="G63" s="4">
         <v>43992.479861111111</v>
       </c>
-      <c r="G63" s="2">
+      <c r="H63" s="2">
         <v>108</v>
       </c>
-      <c r="H63" s="2">
+      <c r="I63" s="2">
         <v>122</v>
       </c>
-      <c r="I63" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J63" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
         <v>2</v>
       </c>
@@ -2308,23 +2658,23 @@
       <c r="D64" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E64" s="2">
+      <c r="F64" s="2">
         <v>370</v>
       </c>
-      <c r="F64" s="4">
+      <c r="G64" s="4">
         <v>43993.479861111111</v>
       </c>
-      <c r="G64" s="2">
+      <c r="H64" s="2">
         <v>106</v>
       </c>
-      <c r="H64" s="2">
+      <c r="I64" s="2">
         <v>139</v>
       </c>
-      <c r="I64" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J64" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
         <v>2</v>
       </c>
@@ -2337,23 +2687,23 @@
       <c r="D65" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E65" s="2">
+      <c r="F65" s="2">
         <v>801</v>
       </c>
-      <c r="F65" s="4">
+      <c r="G65" s="4">
         <v>43993.813194444447</v>
       </c>
-      <c r="G65" s="2">
+      <c r="H65" s="2">
         <v>120</v>
       </c>
-      <c r="H65" s="2">
+      <c r="I65" s="2">
         <v>124</v>
       </c>
-      <c r="I65" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J65" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
         <v>2</v>
       </c>
@@ -2366,23 +2716,23 @@
       <c r="D66" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E66" s="2">
+      <c r="F66" s="2">
         <v>15</v>
       </c>
-      <c r="F66" s="4">
+      <c r="G66" s="4">
         <v>43994.479861111111</v>
       </c>
-      <c r="G66" s="2">
+      <c r="H66" s="2">
         <v>97</v>
       </c>
-      <c r="H66" s="2">
+      <c r="I66" s="2">
         <v>93</v>
       </c>
-      <c r="I66" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J66" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
         <v>2</v>
       </c>
@@ -2395,23 +2745,23 @@
       <c r="D67" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E67" s="2">
+      <c r="F67" s="2">
         <v>105</v>
       </c>
-      <c r="F67" s="4">
+      <c r="G67" s="4">
         <v>43995.438194444447</v>
       </c>
-      <c r="G67" s="2">
+      <c r="H67" s="2">
         <v>113</v>
       </c>
-      <c r="H67" s="2">
+      <c r="I67" s="2">
         <v>107</v>
       </c>
-      <c r="I67" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J67" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
         <v>2</v>
       </c>
@@ -2424,23 +2774,23 @@
       <c r="D68" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E68" s="2">
+      <c r="F68" s="2">
         <v>201</v>
       </c>
-      <c r="F68" s="4">
+      <c r="G68" s="4">
         <v>43965.438194444447</v>
       </c>
-      <c r="G68" s="2">
+      <c r="H68" s="2">
         <v>99</v>
       </c>
-      <c r="H68" s="2">
+      <c r="I68" s="2">
         <v>116</v>
       </c>
-      <c r="I68" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J68" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
         <v>2</v>
       </c>
@@ -2453,23 +2803,23 @@
       <c r="D69" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E69" s="2">
+      <c r="F69" s="2">
         <v>193</v>
       </c>
-      <c r="F69" s="4">
+      <c r="G69" s="4">
         <v>43997.438194444447</v>
       </c>
-      <c r="G69" s="2">
+      <c r="H69" s="2">
         <v>114</v>
       </c>
-      <c r="H69" s="2">
+      <c r="I69" s="2">
         <v>136</v>
       </c>
-      <c r="I69" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J69" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
         <v>2</v>
       </c>
@@ -2482,23 +2832,23 @@
       <c r="D70" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E70" s="2">
+      <c r="F70" s="2">
         <v>88</v>
       </c>
-      <c r="F70" s="4">
+      <c r="G70" s="4">
         <v>43997.688194444447</v>
       </c>
-      <c r="G70" s="2">
+      <c r="H70" s="2">
         <v>114</v>
       </c>
-      <c r="H70" s="2">
+      <c r="I70" s="2">
         <v>110</v>
       </c>
-      <c r="I70" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J70" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
         <v>2</v>
       </c>
@@ -2511,23 +2861,23 @@
       <c r="D71" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E71" s="2">
+      <c r="F71" s="2">
         <v>446</v>
       </c>
-      <c r="F71" s="4">
+      <c r="G71" s="4">
         <v>43998.396527777775</v>
       </c>
-      <c r="G71" s="2">
+      <c r="H71" s="2">
         <v>108</v>
       </c>
-      <c r="H71" s="2">
+      <c r="I71" s="2">
         <v>130</v>
       </c>
-      <c r="I71" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J71" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
         <v>2</v>
       </c>
@@ -2540,23 +2890,23 @@
       <c r="D72" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E72" s="2">
+      <c r="F72" s="2">
         <v>466</v>
       </c>
-      <c r="F72" s="4">
+      <c r="G72" s="4">
         <v>43998.896527777775</v>
       </c>
-      <c r="G72" s="2">
+      <c r="H72" s="2">
         <v>116</v>
       </c>
-      <c r="H72" s="2">
+      <c r="I72" s="2">
         <v>122</v>
       </c>
-      <c r="I72" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J72" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
         <v>2</v>
       </c>
@@ -2569,23 +2919,23 @@
       <c r="D73" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E73" s="2">
+      <c r="F73" s="2">
         <v>400</v>
       </c>
-      <c r="F73" s="4">
+      <c r="G73" s="4">
         <v>43999.896527777775</v>
       </c>
-      <c r="G73" s="2">
+      <c r="H73" s="2">
         <v>117</v>
       </c>
-      <c r="H73" s="2">
+      <c r="I73" s="2">
         <v>134</v>
       </c>
-      <c r="I73" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J73" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>2</v>
       </c>
@@ -2598,23 +2948,23 @@
       <c r="D74" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E74" s="2">
+      <c r="F74" s="2">
         <v>319</v>
       </c>
-      <c r="F74" s="4">
+      <c r="G74" s="4">
         <v>44000.896527777775</v>
       </c>
-      <c r="G74" s="2">
+      <c r="H74" s="2">
         <v>103</v>
       </c>
-      <c r="H74" s="2">
+      <c r="I74" s="2">
         <v>123</v>
       </c>
-      <c r="I74" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J74" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
         <v>2</v>
       </c>
@@ -2627,23 +2977,23 @@
       <c r="D75" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E75" s="2">
+      <c r="F75" s="2">
         <v>568</v>
       </c>
-      <c r="F75" s="4">
+      <c r="G75" s="4">
         <v>44001.896527777775</v>
       </c>
-      <c r="G75" s="2">
+      <c r="H75" s="2">
         <v>113</v>
       </c>
-      <c r="H75" s="2">
+      <c r="I75" s="2">
         <v>107</v>
       </c>
-      <c r="I75" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J75" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
         <v>2</v>
       </c>
@@ -2656,23 +3006,23 @@
       <c r="D76" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E76" s="2">
+      <c r="F76" s="2">
         <v>122</v>
       </c>
-      <c r="F76" s="4">
+      <c r="G76" s="4">
         <v>44002.396527777775</v>
       </c>
-      <c r="G76" s="2">
+      <c r="H76" s="2">
         <v>120</v>
       </c>
-      <c r="H76" s="2">
+      <c r="I76" s="2">
         <v>115</v>
       </c>
-      <c r="I76" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J76" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
         <v>2</v>
       </c>
@@ -2685,23 +3035,23 @@
       <c r="D77" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E77" s="2">
+      <c r="F77" s="2">
         <v>486</v>
       </c>
-      <c r="F77" s="4">
+      <c r="G77" s="4">
         <v>44003.396527777775</v>
       </c>
-      <c r="G77" s="2">
+      <c r="H77" s="2">
         <v>103</v>
       </c>
-      <c r="H77" s="2">
+      <c r="I77" s="2">
         <v>127</v>
       </c>
-      <c r="I77" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J77" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
         <v>2</v>
       </c>
@@ -2714,23 +3064,23 @@
       <c r="D78" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E78" s="2">
+      <c r="F78" s="2">
         <v>397</v>
       </c>
-      <c r="F78" s="4">
+      <c r="G78" s="4">
         <v>44003.479861111111</v>
       </c>
-      <c r="G78" s="2">
+      <c r="H78" s="2">
         <v>120</v>
       </c>
-      <c r="H78" s="2">
+      <c r="I78" s="2">
         <v>132</v>
       </c>
-      <c r="I78" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J78" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
         <v>2</v>
       </c>
@@ -2743,23 +3093,23 @@
       <c r="D79" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E79" s="2">
+      <c r="F79" s="2">
         <v>385</v>
       </c>
-      <c r="F79" s="4">
+      <c r="G79" s="4">
         <v>44004.396527777775</v>
       </c>
-      <c r="G79" s="2">
+      <c r="H79" s="2">
         <v>93</v>
       </c>
-      <c r="H79" s="2">
+      <c r="I79" s="2">
         <v>114</v>
       </c>
-      <c r="I79" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J79" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
         <v>2</v>
       </c>
@@ -2772,23 +3122,23 @@
       <c r="D80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>90</v>
       </c>
-      <c r="F80" s="4">
+      <c r="G80" s="4">
         <v>44004.479861111111</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>102</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>96</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J80" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
         <v>2</v>
       </c>
@@ -2801,23 +3151,23 @@
       <c r="D81" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E81" s="2">
+      <c r="F81" s="2">
         <v>30</v>
       </c>
-      <c r="F81" s="4">
+      <c r="G81" s="4">
         <v>44005.396527777775</v>
       </c>
-      <c r="G81" s="2">
+      <c r="H81" s="2">
         <v>93</v>
       </c>
-      <c r="H81" s="2">
+      <c r="I81" s="2">
         <v>106</v>
       </c>
-      <c r="I81" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J81" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
         <v>2</v>
       </c>
@@ -2830,23 +3180,23 @@
       <c r="D82" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E82" s="2">
+      <c r="F82" s="2">
         <v>382</v>
       </c>
-      <c r="F82" s="4">
+      <c r="G82" s="4">
         <v>44006.479861111111</v>
       </c>
-      <c r="G82" s="2">
+      <c r="H82" s="2">
         <v>104</v>
       </c>
-      <c r="H82" s="2">
+      <c r="I82" s="2">
         <v>148</v>
       </c>
-      <c r="I82" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J82" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
         <v>2</v>
       </c>
@@ -2859,23 +3209,23 @@
       <c r="D83" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E83" s="2">
+      <c r="F83" s="2">
         <v>66</v>
       </c>
-      <c r="F83" s="4">
+      <c r="G83" s="4">
         <v>44006.896527777775</v>
       </c>
-      <c r="G83" s="2">
+      <c r="H83" s="2">
         <v>103</v>
       </c>
-      <c r="H83" s="2">
+      <c r="I83" s="2">
         <v>106</v>
       </c>
-      <c r="I83" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J83" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
         <v>2</v>
       </c>
@@ -2888,23 +3238,23 @@
       <c r="D84" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E84" s="2">
+      <c r="F84" s="2">
         <v>300</v>
       </c>
-      <c r="F84" s="4">
+      <c r="G84" s="4">
         <v>44007.896527777775</v>
       </c>
-      <c r="G84" s="2">
+      <c r="H84" s="2">
         <v>107</v>
       </c>
-      <c r="H84" s="2">
+      <c r="I84" s="2">
         <v>139</v>
       </c>
-      <c r="I84" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J84" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A85" s="2" t="s">
         <v>2</v>
       </c>
@@ -2917,23 +3267,23 @@
       <c r="D85" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E85" s="2">
+      <c r="F85" s="2">
         <v>560</v>
       </c>
-      <c r="F85" s="4">
+      <c r="G85" s="4">
         <v>44008.896527777775</v>
       </c>
-      <c r="G85" s="2">
+      <c r="H85" s="2">
         <v>100</v>
       </c>
-      <c r="H85" s="2">
+      <c r="I85" s="2">
         <v>116</v>
       </c>
-      <c r="I85" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J85" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A86" s="2" t="s">
         <v>2</v>
       </c>
@@ -2946,23 +3296,23 @@
       <c r="D86" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E86" s="2">
+      <c r="F86" s="2">
         <v>402</v>
       </c>
-      <c r="F86" s="4">
+      <c r="G86" s="4">
         <v>44009.396527777775</v>
       </c>
-      <c r="G86" s="2">
+      <c r="H86" s="2">
         <v>114</v>
       </c>
-      <c r="H86" s="2">
+      <c r="I86" s="2">
         <v>115</v>
       </c>
-      <c r="I86" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J86" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A87" s="2" t="s">
         <v>2</v>
       </c>
@@ -2975,23 +3325,23 @@
       <c r="D87" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E87" s="2">
+      <c r="F87" s="2">
         <v>495</v>
       </c>
-      <c r="F87" s="4">
+      <c r="G87" s="4">
         <v>44009.896527777775</v>
       </c>
-      <c r="G87" s="2">
+      <c r="H87" s="2">
         <v>93</v>
       </c>
-      <c r="H87" s="2">
+      <c r="I87" s="2">
         <v>106</v>
       </c>
-      <c r="I87" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J87" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A88" s="2" t="s">
         <v>2</v>
       </c>
@@ -3004,23 +3354,23 @@
       <c r="D88" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E88" s="2">
+      <c r="F88" s="2">
         <v>90</v>
       </c>
-      <c r="F88" s="4">
+      <c r="G88" s="4">
         <v>44010.604861111111</v>
       </c>
-      <c r="G88" s="2">
+      <c r="H88" s="2">
         <v>99</v>
       </c>
-      <c r="H88" s="2">
+      <c r="I88" s="2">
         <v>102</v>
       </c>
-      <c r="I88" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J88" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A89" s="2" t="s">
         <v>2</v>
       </c>
@@ -3033,23 +3383,23 @@
       <c r="D89" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E89" s="2">
+      <c r="F89" s="2">
         <v>513</v>
       </c>
-      <c r="F89" s="4">
+      <c r="G89" s="4">
         <v>44010.896527777775</v>
       </c>
-      <c r="G89" s="2">
+      <c r="H89" s="2">
         <v>105</v>
       </c>
-      <c r="H89" s="2">
+      <c r="I89" s="2">
         <v>152</v>
       </c>
-      <c r="I89" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J89" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A90" s="2" t="s">
         <v>2</v>
       </c>
@@ -3062,23 +3412,23 @@
       <c r="D90" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E90" s="2">
+      <c r="F90" s="2">
         <v>62</v>
       </c>
-      <c r="F90" s="4">
+      <c r="G90" s="4">
         <v>44011.563194444447</v>
       </c>
-      <c r="G90" s="2">
+      <c r="H90" s="2">
         <v>95</v>
       </c>
-      <c r="H90" s="2">
+      <c r="I90" s="2">
         <v>105</v>
       </c>
-      <c r="I90" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J90" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A91" s="2" t="s">
         <v>2</v>
       </c>
@@ -3091,23 +3441,23 @@
       <c r="D91" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E91" s="2">
+      <c r="F91" s="2">
         <v>394</v>
       </c>
-      <c r="F91" s="4">
+      <c r="G91" s="4">
         <v>44011.729861111111</v>
       </c>
-      <c r="G91" s="2">
+      <c r="H91" s="2">
         <v>105</v>
       </c>
-      <c r="H91" s="2">
+      <c r="I91" s="2">
         <v>116</v>
       </c>
-      <c r="I91" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J91" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A92" s="2" t="s">
         <v>2</v>
       </c>
@@ -3120,23 +3470,23 @@
       <c r="D92" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E92" s="2">
+      <c r="F92" s="2">
         <v>355</v>
       </c>
-      <c r="F92" s="4">
+      <c r="G92" s="4">
         <v>44011.854861111111</v>
       </c>
-      <c r="G92" s="2">
+      <c r="H92" s="2">
         <v>102</v>
       </c>
-      <c r="H92" s="2">
+      <c r="I92" s="2">
         <v>120</v>
       </c>
-      <c r="I92" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J92" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
         <v>2</v>
       </c>
@@ -3149,23 +3499,23 @@
       <c r="D93" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E93" s="2">
+      <c r="F93" s="2">
         <v>370</v>
       </c>
-      <c r="F93" s="4">
+      <c r="G93" s="4">
         <v>44011.938194444447</v>
       </c>
-      <c r="G93" s="2">
+      <c r="H93" s="2">
         <v>95</v>
       </c>
-      <c r="H93" s="2">
+      <c r="I93" s="2">
         <v>172</v>
       </c>
-      <c r="I93" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J93" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A94" s="2" t="s">
         <v>2</v>
       </c>
@@ -3178,23 +3528,23 @@
       <c r="D94" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E94" s="2">
+      <c r="F94" s="2">
         <v>91</v>
       </c>
-      <c r="F94" s="4">
+      <c r="G94" s="4">
         <v>44012.438194444447</v>
       </c>
-      <c r="G94" s="2">
+      <c r="H94" s="2">
         <v>102</v>
       </c>
-      <c r="H94" s="2">
+      <c r="I94" s="2">
         <v>115</v>
       </c>
-      <c r="I94" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J94" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A95" s="2" t="s">
         <v>2</v>
       </c>
@@ -3207,23 +3557,23 @@
       <c r="D95" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E95" s="2">
+      <c r="F95" s="2">
         <v>290</v>
       </c>
-      <c r="F95" s="4">
+      <c r="G95" s="4">
         <v>44012.521527777775</v>
       </c>
-      <c r="G95" s="2">
+      <c r="H95" s="2">
         <v>100</v>
       </c>
-      <c r="H95" s="2">
+      <c r="I95" s="2">
         <v>119</v>
       </c>
-      <c r="I95" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J95" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A96" s="2" t="s">
         <v>2</v>
       </c>
@@ -3236,23 +3586,23 @@
       <c r="D96" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E96" s="2">
+      <c r="F96" s="2">
         <v>312</v>
       </c>
-      <c r="F96" s="4">
+      <c r="G96" s="4">
         <v>44012.854861111111</v>
       </c>
-      <c r="G96" s="2">
+      <c r="H96" s="2">
         <v>107</v>
       </c>
-      <c r="H96" s="2">
+      <c r="I96" s="2">
         <v>159</v>
       </c>
-      <c r="I96" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J96" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A97" s="2" t="s">
         <v>2</v>
       </c>
@@ -3265,23 +3615,23 @@
       <c r="D97" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E97" s="2">
+      <c r="F97" s="2">
         <v>114</v>
       </c>
-      <c r="F97" s="4" t="s">
+      <c r="G97" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G97" s="2">
+      <c r="H97" s="2">
         <v>105</v>
       </c>
-      <c r="H97" s="2">
+      <c r="I97" s="2">
         <v>145</v>
       </c>
-      <c r="I97" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J97" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A98" s="2" t="s">
         <v>2</v>
       </c>
@@ -3294,23 +3644,23 @@
       <c r="D98" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E98" s="2">
+      <c r="F98" s="2">
         <v>513</v>
       </c>
-      <c r="F98" s="4" t="s">
+      <c r="G98" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G98" s="2">
+      <c r="H98" s="2">
         <v>100</v>
       </c>
-      <c r="H98" s="2">
+      <c r="I98" s="2">
         <v>128</v>
       </c>
-      <c r="I98" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J98" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A99" s="2" t="s">
         <v>2</v>
       </c>
@@ -3323,23 +3673,23 @@
       <c r="D99" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E99" s="2">
+      <c r="F99" s="2">
         <v>265</v>
       </c>
-      <c r="F99" s="4">
+      <c r="G99" s="4">
         <v>44013.896527777775</v>
       </c>
-      <c r="G99" s="2">
+      <c r="H99" s="2">
         <v>111</v>
       </c>
-      <c r="H99" s="2">
+      <c r="I99" s="2">
         <v>129</v>
       </c>
-      <c r="I99" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J99" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A100" s="2" t="s">
         <v>2</v>
       </c>
@@ -3352,23 +3702,23 @@
       <c r="D100" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E100" s="2">
+      <c r="F100" s="2">
         <v>340</v>
       </c>
-      <c r="F100" s="4">
+      <c r="G100" s="4">
         <v>44014.396527777775</v>
       </c>
-      <c r="G100" s="2">
+      <c r="H100" s="2">
         <v>110</v>
       </c>
-      <c r="H100" s="2">
+      <c r="I100" s="2">
         <v>106</v>
       </c>
-      <c r="I100" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J100" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A101" s="2" t="s">
         <v>2</v>
       </c>
@@ -3381,23 +3731,23 @@
       <c r="D101" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E101" s="2">
+      <c r="F101" s="2">
         <v>183</v>
       </c>
-      <c r="F101" s="4">
+      <c r="G101" s="4">
         <v>44015.396527777775</v>
       </c>
-      <c r="G101" s="2">
+      <c r="H101" s="2">
         <v>116</v>
       </c>
-      <c r="H101" s="2">
+      <c r="I101" s="2">
         <v>131</v>
       </c>
-      <c r="I101" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J101" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A102" s="2" t="s">
         <v>2</v>
       </c>
@@ -3410,23 +3760,23 @@
       <c r="D102" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E102" s="2">
+      <c r="F102" s="2">
         <v>171</v>
       </c>
-      <c r="F102" s="4">
+      <c r="G102" s="4">
         <v>44016.396527777775</v>
       </c>
-      <c r="G102" s="2">
+      <c r="H102" s="2">
         <v>111</v>
       </c>
-      <c r="H102" s="2">
+      <c r="I102" s="2">
         <v>107</v>
       </c>
-      <c r="I102" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J102" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A103" s="2" t="s">
         <v>2</v>
       </c>
@@ -3439,23 +3789,23 @@
       <c r="D103" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E103" s="2">
+      <c r="F103" s="2">
         <v>460</v>
       </c>
-      <c r="F103" s="4">
+      <c r="G103" s="4">
         <v>44017.396527777775</v>
       </c>
-      <c r="G103" s="2">
+      <c r="H103" s="2">
         <v>119</v>
       </c>
-      <c r="H103" s="2">
+      <c r="I103" s="2">
         <v>131</v>
       </c>
-      <c r="I103" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J103" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A104" s="2" t="s">
         <v>2</v>
       </c>
@@ -3468,23 +3818,23 @@
       <c r="D104" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E104" s="2">
+      <c r="F104" s="2">
         <v>1018</v>
       </c>
-      <c r="F104" s="4">
+      <c r="G104" s="4">
         <v>44018.521527777775</v>
       </c>
-      <c r="G104" s="2">
+      <c r="H104" s="2">
         <v>103</v>
       </c>
-      <c r="H104" s="2">
+      <c r="I104" s="2">
         <v>128</v>
       </c>
-      <c r="I104" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J104" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A105" s="2" t="s">
         <v>2</v>
       </c>
@@ -3497,23 +3847,23 @@
       <c r="D105" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E105" s="2">
+      <c r="F105" s="2">
         <v>363</v>
       </c>
-      <c r="F105" s="4">
+      <c r="G105" s="4">
         <v>44019.396527777775</v>
       </c>
-      <c r="G105" s="2">
+      <c r="H105" s="2">
         <v>108</v>
       </c>
-      <c r="H105" s="2">
+      <c r="I105" s="2">
         <v>120</v>
       </c>
-      <c r="I105" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J105" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A106" s="2" t="s">
         <v>2</v>
       </c>
@@ -3526,23 +3876,23 @@
       <c r="D106" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E106" s="2">
+      <c r="F106" s="2">
         <v>688</v>
       </c>
-      <c r="F106" s="4">
+      <c r="G106" s="4">
         <v>44020.521527777775</v>
       </c>
-      <c r="G106" s="2">
+      <c r="H106" s="2">
         <v>91</v>
       </c>
-      <c r="H106" s="2">
+      <c r="I106" s="2">
         <v>118</v>
       </c>
-      <c r="I106" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J106" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A107" s="2" t="s">
         <v>2</v>
       </c>
@@ -3555,23 +3905,23 @@
       <c r="D107" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E107" s="2">
+      <c r="F107" s="2">
         <v>280</v>
       </c>
-      <c r="F107" s="4">
+      <c r="G107" s="4">
         <v>44021.396527777775</v>
       </c>
-      <c r="G107" s="2">
+      <c r="H107" s="2">
         <v>114</v>
       </c>
-      <c r="H107" s="2">
+      <c r="I107" s="2">
         <v>130</v>
       </c>
-      <c r="I107" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J107" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A108" s="2" t="s">
         <v>2</v>
       </c>
@@ -3584,23 +3934,23 @@
       <c r="D108" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E108" s="2">
+      <c r="F108" s="2">
         <v>318</v>
       </c>
-      <c r="F108" s="4">
+      <c r="G108" s="4">
         <v>44021.65625</v>
       </c>
-      <c r="G108" s="2">
+      <c r="H108" s="2">
         <v>106</v>
       </c>
-      <c r="H108" s="2">
+      <c r="I108" s="2">
         <v>128</v>
       </c>
-      <c r="I108" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J108" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A109" s="2" t="s">
         <v>2</v>
       </c>
@@ -3613,23 +3963,23 @@
       <c r="D109" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E109" s="2">
+      <c r="F109" s="2">
         <v>410</v>
       </c>
-      <c r="F109" s="4">
+      <c r="G109" s="4">
         <v>44022.521527777775</v>
       </c>
-      <c r="G109" s="2">
+      <c r="H109" s="2">
         <v>108</v>
       </c>
-      <c r="H109" s="2">
+      <c r="I109" s="2">
         <v>128</v>
       </c>
-      <c r="I109" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J109" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A110" s="2" t="s">
         <v>2</v>
       </c>
@@ -3642,23 +3992,23 @@
       <c r="D110" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E110" s="2">
+      <c r="F110" s="2">
         <v>0</v>
       </c>
-      <c r="F110" s="4">
+      <c r="G110" s="4">
         <v>44023.354861111111</v>
       </c>
-      <c r="G110" s="2">
+      <c r="H110" s="2">
         <v>110</v>
       </c>
-      <c r="H110" s="2">
+      <c r="I110" s="2">
         <v>113</v>
       </c>
-      <c r="I110" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J110" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A111" s="2" t="s">
         <v>2</v>
       </c>
@@ -3671,23 +4021,23 @@
       <c r="D111" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E111" s="2">
+      <c r="F111" s="2">
         <v>780</v>
       </c>
-      <c r="F111" s="4">
+      <c r="G111" s="4">
         <v>44023.479861111111</v>
       </c>
-      <c r="G111" s="2">
+      <c r="H111" s="2">
         <v>101</v>
       </c>
-      <c r="H111" s="2">
+      <c r="I111" s="2">
         <v>120</v>
       </c>
-      <c r="I111" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J111" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A112" s="2" t="s">
         <v>2</v>
       </c>
@@ -3700,23 +4050,23 @@
       <c r="D112" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E112" s="2">
+      <c r="F112" s="2">
         <v>240</v>
       </c>
-      <c r="F112" s="4">
+      <c r="G112" s="4">
         <v>44024.479861111111</v>
       </c>
-      <c r="G112" s="2">
+      <c r="H112" s="2">
         <v>108</v>
       </c>
-      <c r="H112" s="2">
+      <c r="I112" s="2">
         <v>122</v>
       </c>
-      <c r="I112" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J112" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A113" s="2" t="s">
         <v>2</v>
       </c>
@@ -3729,23 +4079,23 @@
       <c r="D113" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E113" s="2">
+      <c r="F113" s="2">
         <v>370</v>
       </c>
-      <c r="F113" s="4">
+      <c r="G113" s="4">
         <v>44025.479861111111</v>
       </c>
-      <c r="G113" s="2">
+      <c r="H113" s="2">
         <v>106</v>
       </c>
-      <c r="H113" s="2">
+      <c r="I113" s="2">
         <v>139</v>
       </c>
-      <c r="I113" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J113" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A114" s="2" t="s">
         <v>2</v>
       </c>
@@ -3758,23 +4108,23 @@
       <c r="D114" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E114" s="2">
+      <c r="F114" s="2">
         <v>801</v>
       </c>
-      <c r="F114" s="4">
+      <c r="G114" s="4">
         <v>44025.813194444447</v>
       </c>
-      <c r="G114" s="2">
+      <c r="H114" s="2">
         <v>120</v>
       </c>
-      <c r="H114" s="2">
+      <c r="I114" s="2">
         <v>124</v>
       </c>
-      <c r="I114" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J114" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A115" s="2" t="s">
         <v>2</v>
       </c>
@@ -3787,23 +4137,23 @@
       <c r="D115" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E115" s="2">
+      <c r="F115" s="2">
         <v>15</v>
       </c>
-      <c r="F115" s="4">
+      <c r="G115" s="4">
         <v>44026.479861111111</v>
       </c>
-      <c r="G115" s="2">
+      <c r="H115" s="2">
         <v>97</v>
       </c>
-      <c r="H115" s="2">
+      <c r="I115" s="2">
         <v>93</v>
       </c>
-      <c r="I115" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J115" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A116" s="2" t="s">
         <v>2</v>
       </c>
@@ -3816,23 +4166,23 @@
       <c r="D116" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E116" s="2">
+      <c r="F116" s="2">
         <v>105</v>
       </c>
-      <c r="F116" s="4">
+      <c r="G116" s="4">
         <v>44026.438194444447</v>
       </c>
-      <c r="G116" s="2">
+      <c r="H116" s="2">
         <v>113</v>
       </c>
-      <c r="H116" s="2">
+      <c r="I116" s="2">
         <v>107</v>
       </c>
-      <c r="I116" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J116" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A117" s="2" t="s">
         <v>2</v>
       </c>
@@ -3845,23 +4195,23 @@
       <c r="D117" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E117" s="2">
+      <c r="F117" s="2">
         <v>201</v>
       </c>
-      <c r="F117" s="4">
+      <c r="G117" s="4">
         <v>44027.438194444447</v>
       </c>
-      <c r="G117" s="2">
+      <c r="H117" s="2">
         <v>99</v>
       </c>
-      <c r="H117" s="2">
+      <c r="I117" s="2">
         <v>116</v>
       </c>
-      <c r="I117" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J117" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A118" s="2" t="s">
         <v>2</v>
       </c>
@@ -3874,23 +4224,23 @@
       <c r="D118" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E118" s="2">
+      <c r="F118" s="2">
         <v>193</v>
       </c>
-      <c r="F118" s="4">
+      <c r="G118" s="4">
         <v>44028.438194444447</v>
       </c>
-      <c r="G118" s="2">
+      <c r="H118" s="2">
         <v>114</v>
       </c>
-      <c r="H118" s="2">
+      <c r="I118" s="2">
         <v>136</v>
       </c>
-      <c r="I118" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J118" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A119" s="2" t="s">
         <v>2</v>
       </c>
@@ -3903,23 +4253,23 @@
       <c r="D119" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E119" s="2">
+      <c r="F119" s="2">
         <v>88</v>
       </c>
-      <c r="F119" s="4">
+      <c r="G119" s="4">
         <v>44028.688194444447</v>
       </c>
-      <c r="G119" s="2">
+      <c r="H119" s="2">
         <v>114</v>
       </c>
-      <c r="H119" s="2">
+      <c r="I119" s="2">
         <v>110</v>
       </c>
-      <c r="I119" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J119" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A120" s="2" t="s">
         <v>2</v>
       </c>
@@ -3932,23 +4282,23 @@
       <c r="D120" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E120" s="2">
+      <c r="F120" s="2">
         <v>446</v>
       </c>
-      <c r="F120" s="4">
+      <c r="G120" s="4">
         <v>44029.396527777775</v>
       </c>
-      <c r="G120" s="2">
+      <c r="H120" s="2">
         <v>108</v>
       </c>
-      <c r="H120" s="2">
+      <c r="I120" s="2">
         <v>130</v>
       </c>
-      <c r="I120" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J120" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A121" s="2" t="s">
         <v>2</v>
       </c>
@@ -3961,23 +4311,23 @@
       <c r="D121" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E121" s="2">
+      <c r="F121" s="2">
         <v>466</v>
       </c>
-      <c r="F121" s="4">
+      <c r="G121" s="4">
         <v>44029.896527777775</v>
       </c>
-      <c r="G121" s="2">
+      <c r="H121" s="2">
         <v>116</v>
       </c>
-      <c r="H121" s="2">
+      <c r="I121" s="2">
         <v>122</v>
       </c>
-      <c r="I121" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J121" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A122" s="2" t="s">
         <v>2</v>
       </c>
@@ -3990,23 +4340,23 @@
       <c r="D122" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E122" s="2">
+      <c r="F122" s="2">
         <v>400</v>
       </c>
-      <c r="F122" s="4">
+      <c r="G122" s="4">
         <v>44030.896527777775</v>
       </c>
-      <c r="G122" s="2">
+      <c r="H122" s="2">
         <v>117</v>
       </c>
-      <c r="H122" s="2">
+      <c r="I122" s="2">
         <v>134</v>
       </c>
-      <c r="I122" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J122" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A123" s="2" t="s">
         <v>2</v>
       </c>
@@ -4019,23 +4369,23 @@
       <c r="D123" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E123" s="2">
+      <c r="F123" s="2">
         <v>319</v>
       </c>
-      <c r="F123" s="4">
+      <c r="G123" s="4">
         <v>44031.896527777775</v>
       </c>
-      <c r="G123" s="2">
+      <c r="H123" s="2">
         <v>103</v>
       </c>
-      <c r="H123" s="2">
+      <c r="I123" s="2">
         <v>123</v>
       </c>
-      <c r="I123" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J123" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A124" s="2" t="s">
         <v>2</v>
       </c>
@@ -4048,23 +4398,23 @@
       <c r="D124" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E124" s="2">
+      <c r="F124" s="2">
         <v>568</v>
       </c>
-      <c r="F124" s="4">
+      <c r="G124" s="4">
         <v>44032.896527777775</v>
       </c>
-      <c r="G124" s="2">
+      <c r="H124" s="2">
         <v>113</v>
       </c>
-      <c r="H124" s="2">
+      <c r="I124" s="2">
         <v>107</v>
       </c>
-      <c r="I124" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J124" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A125" s="2" t="s">
         <v>2</v>
       </c>
@@ -4077,23 +4427,23 @@
       <c r="D125" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E125" s="2">
+      <c r="F125" s="2">
         <v>122</v>
       </c>
-      <c r="F125" s="4">
+      <c r="G125" s="4">
         <v>44033.396527777775</v>
       </c>
-      <c r="G125" s="2">
+      <c r="H125" s="2">
         <v>120</v>
       </c>
-      <c r="H125" s="2">
+      <c r="I125" s="2">
         <v>115</v>
       </c>
-      <c r="I125" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J125" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A126" s="2" t="s">
         <v>2</v>
       </c>
@@ -4106,23 +4456,23 @@
       <c r="D126" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E126" s="2">
+      <c r="F126" s="2">
         <v>486</v>
       </c>
-      <c r="F126" s="4">
+      <c r="G126" s="4">
         <v>44034.396527777775</v>
       </c>
-      <c r="G126" s="2">
+      <c r="H126" s="2">
         <v>103</v>
       </c>
-      <c r="H126" s="2">
+      <c r="I126" s="2">
         <v>127</v>
       </c>
-      <c r="I126" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J126" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A127" s="2" t="s">
         <v>2</v>
       </c>
@@ -4135,23 +4485,23 @@
       <c r="D127" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E127" s="2">
+      <c r="F127" s="2">
         <v>397</v>
       </c>
-      <c r="F127" s="4">
+      <c r="G127" s="4">
         <v>44034.479861111111</v>
       </c>
-      <c r="G127" s="2">
+      <c r="H127" s="2">
         <v>120</v>
       </c>
-      <c r="H127" s="2">
+      <c r="I127" s="2">
         <v>132</v>
       </c>
-      <c r="I127" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J127" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A128" s="2" t="s">
         <v>2</v>
       </c>
@@ -4164,23 +4514,23 @@
       <c r="D128" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E128" s="2">
+      <c r="F128" s="2">
         <v>385</v>
       </c>
-      <c r="F128" s="4">
+      <c r="G128" s="4">
         <v>44035.396527777775</v>
       </c>
-      <c r="G128" s="2">
+      <c r="H128" s="2">
         <v>93</v>
       </c>
-      <c r="H128" s="2">
+      <c r="I128" s="2">
         <v>114</v>
       </c>
-      <c r="I128" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J128" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A129" s="2" t="s">
         <v>2</v>
       </c>
@@ -4193,23 +4543,23 @@
       <c r="D129" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E129" s="2">
+      <c r="F129" s="2">
         <v>90</v>
       </c>
-      <c r="F129" s="4">
+      <c r="G129" s="4">
         <v>44035.479861111111</v>
       </c>
-      <c r="G129" s="2">
+      <c r="H129" s="2">
         <v>102</v>
       </c>
-      <c r="H129" s="2">
+      <c r="I129" s="2">
         <v>96</v>
       </c>
-      <c r="I129" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J129" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A130" s="2" t="s">
         <v>2</v>
       </c>
@@ -4222,23 +4572,23 @@
       <c r="D130" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E130" s="2">
+      <c r="F130" s="2">
         <v>30</v>
       </c>
-      <c r="F130" s="4">
+      <c r="G130" s="4">
         <v>44036.396527777775</v>
       </c>
-      <c r="G130" s="2">
+      <c r="H130" s="2">
         <v>93</v>
       </c>
-      <c r="H130" s="2">
+      <c r="I130" s="2">
         <v>106</v>
       </c>
-      <c r="I130" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J130" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A131" s="2" t="s">
         <v>2</v>
       </c>
@@ -4251,23 +4601,23 @@
       <c r="D131" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E131" s="2">
+      <c r="F131" s="2">
         <v>382</v>
       </c>
-      <c r="F131" s="4">
+      <c r="G131" s="4">
         <v>44036.479861111111</v>
       </c>
-      <c r="G131" s="2">
+      <c r="H131" s="2">
         <v>104</v>
       </c>
-      <c r="H131" s="2">
+      <c r="I131" s="2">
         <v>148</v>
       </c>
-      <c r="I131" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J131" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A132" s="2" t="s">
         <v>2</v>
       </c>
@@ -4280,23 +4630,23 @@
       <c r="D132" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E132" s="2">
+      <c r="F132" s="2">
         <v>66</v>
       </c>
-      <c r="F132" s="4">
+      <c r="G132" s="4">
         <v>44036.896527777775</v>
       </c>
-      <c r="G132" s="2">
+      <c r="H132" s="2">
         <v>103</v>
       </c>
-      <c r="H132" s="2">
+      <c r="I132" s="2">
         <v>106</v>
       </c>
-      <c r="I132" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J132" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A133" s="2" t="s">
         <v>2</v>
       </c>
@@ -4309,23 +4659,23 @@
       <c r="D133" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E133" s="2">
+      <c r="F133" s="2">
         <v>300</v>
       </c>
-      <c r="F133" s="4">
+      <c r="G133" s="4">
         <v>44037.896527777775</v>
       </c>
-      <c r="G133" s="2">
+      <c r="H133" s="2">
         <v>107</v>
       </c>
-      <c r="H133" s="2">
+      <c r="I133" s="2">
         <v>139</v>
       </c>
-      <c r="I133" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J133" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A134" s="2" t="s">
         <v>2</v>
       </c>
@@ -4338,23 +4688,23 @@
       <c r="D134" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E134" s="2">
+      <c r="F134" s="2">
         <v>560</v>
       </c>
-      <c r="F134" s="4">
+      <c r="G134" s="4">
         <v>44038.896527777775</v>
       </c>
-      <c r="G134" s="2">
+      <c r="H134" s="2">
         <v>100</v>
       </c>
-      <c r="H134" s="2">
+      <c r="I134" s="2">
         <v>116</v>
       </c>
-      <c r="I134" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J134" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A135" s="2" t="s">
         <v>2</v>
       </c>
@@ -4367,23 +4717,23 @@
       <c r="D135" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E135" s="2">
+      <c r="F135" s="2">
         <v>402</v>
       </c>
-      <c r="F135" s="4">
+      <c r="G135" s="4">
         <v>44039.396527777775</v>
       </c>
-      <c r="G135" s="2">
+      <c r="H135" s="2">
         <v>114</v>
       </c>
-      <c r="H135" s="2">
+      <c r="I135" s="2">
         <v>115</v>
       </c>
-      <c r="I135" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J135" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A136" s="2" t="s">
         <v>2</v>
       </c>
@@ -4396,23 +4746,23 @@
       <c r="D136" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E136" s="2">
+      <c r="F136" s="2">
         <v>495</v>
       </c>
-      <c r="F136" s="4">
+      <c r="G136" s="4">
         <v>44039.896527777775</v>
       </c>
-      <c r="G136" s="2">
+      <c r="H136" s="2">
         <v>93</v>
       </c>
-      <c r="H136" s="2">
+      <c r="I136" s="2">
         <v>106</v>
       </c>
-      <c r="I136" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J136" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A137" s="2" t="s">
         <v>2</v>
       </c>
@@ -4425,23 +4775,23 @@
       <c r="D137" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E137" s="2">
+      <c r="F137" s="2">
         <v>90</v>
       </c>
-      <c r="F137" s="4">
+      <c r="G137" s="4">
         <v>44040.604861111111</v>
       </c>
-      <c r="G137" s="2">
+      <c r="H137" s="2">
         <v>99</v>
       </c>
-      <c r="H137" s="2">
+      <c r="I137" s="2">
         <v>102</v>
       </c>
-      <c r="I137" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J137" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A138" s="2" t="s">
         <v>2</v>
       </c>
@@ -4454,23 +4804,23 @@
       <c r="D138" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E138" s="2">
+      <c r="F138" s="2">
         <v>513</v>
       </c>
-      <c r="F138" s="4">
+      <c r="G138" s="4">
         <v>44040.896527777775</v>
       </c>
-      <c r="G138" s="2">
+      <c r="H138" s="2">
         <v>105</v>
       </c>
-      <c r="H138" s="2">
+      <c r="I138" s="2">
         <v>152</v>
       </c>
-      <c r="I138" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J138" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A139" s="2" t="s">
         <v>2</v>
       </c>
@@ -4483,23 +4833,23 @@
       <c r="D139" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E139" s="2">
+      <c r="F139" s="2">
         <v>62</v>
       </c>
-      <c r="F139" s="4">
+      <c r="G139" s="4">
         <v>44041.563194444447</v>
       </c>
-      <c r="G139" s="2">
+      <c r="H139" s="2">
         <v>95</v>
       </c>
-      <c r="H139" s="2">
+      <c r="I139" s="2">
         <v>105</v>
       </c>
-      <c r="I139" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J139" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A140" s="2" t="s">
         <v>2</v>
       </c>
@@ -4512,23 +4862,23 @@
       <c r="D140" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E140" s="2">
+      <c r="F140" s="2">
         <v>394</v>
       </c>
-      <c r="F140" s="4">
+      <c r="G140" s="4">
         <v>44041.729861111111</v>
       </c>
-      <c r="G140" s="2">
+      <c r="H140" s="2">
         <v>105</v>
       </c>
-      <c r="H140" s="2">
+      <c r="I140" s="2">
         <v>116</v>
       </c>
-      <c r="I140" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J140" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A141" s="2" t="s">
         <v>2</v>
       </c>
@@ -4541,23 +4891,23 @@
       <c r="D141" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E141" s="2">
+      <c r="F141" s="2">
         <v>355</v>
       </c>
-      <c r="F141" s="4">
+      <c r="G141" s="4">
         <v>44041.854861111111</v>
       </c>
-      <c r="G141" s="2">
+      <c r="H141" s="2">
         <v>102</v>
       </c>
-      <c r="H141" s="2">
+      <c r="I141" s="2">
         <v>120</v>
       </c>
-      <c r="I141" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J141" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A142" s="2" t="s">
         <v>2</v>
       </c>
@@ -4570,23 +4920,23 @@
       <c r="D142" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E142" s="2">
+      <c r="F142" s="2">
         <v>370</v>
       </c>
-      <c r="F142" s="4">
+      <c r="G142" s="4">
         <v>44041.938194444447</v>
       </c>
-      <c r="G142" s="2">
+      <c r="H142" s="2">
         <v>95</v>
       </c>
-      <c r="H142" s="2">
+      <c r="I142" s="2">
         <v>172</v>
       </c>
-      <c r="I142" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J142" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A143" s="2" t="s">
         <v>2</v>
       </c>
@@ -4599,23 +4949,23 @@
       <c r="D143" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E143" s="2">
+      <c r="F143" s="2">
         <v>91</v>
       </c>
-      <c r="F143" s="4">
+      <c r="G143" s="4">
         <v>44042.438194444447</v>
       </c>
-      <c r="G143" s="2">
+      <c r="H143" s="2">
         <v>102</v>
       </c>
-      <c r="H143" s="2">
+      <c r="I143" s="2">
         <v>115</v>
       </c>
-      <c r="I143" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J143" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A144" s="2" t="s">
         <v>2</v>
       </c>
@@ -4628,23 +4978,23 @@
       <c r="D144" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E144" s="2">
+      <c r="F144" s="2">
         <v>290</v>
       </c>
-      <c r="F144" s="4">
+      <c r="G144" s="4">
         <v>44042.521527777775</v>
       </c>
-      <c r="G144" s="2">
+      <c r="H144" s="2">
         <v>100</v>
       </c>
-      <c r="H144" s="2">
+      <c r="I144" s="2">
         <v>119</v>
       </c>
-      <c r="I144" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J144" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A145" s="2" t="s">
         <v>2</v>
       </c>
@@ -4657,23 +5007,23 @@
       <c r="D145" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E145" s="2">
+      <c r="F145" s="2">
         <v>312</v>
       </c>
-      <c r="F145" s="4">
+      <c r="G145" s="4">
         <v>44042.854861111111</v>
       </c>
-      <c r="G145" s="2">
+      <c r="H145" s="2">
         <v>107</v>
       </c>
-      <c r="H145" s="2">
+      <c r="I145" s="2">
         <v>159</v>
       </c>
-      <c r="I145" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J145" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A146" s="2" t="s">
         <v>2</v>
       </c>
@@ -4686,23 +5036,23 @@
       <c r="D146" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E146" s="2">
+      <c r="F146" s="2">
         <v>114</v>
       </c>
-      <c r="F146" s="4">
+      <c r="G146" s="4">
         <v>44043.396527777775</v>
       </c>
-      <c r="G146" s="2">
+      <c r="H146" s="2">
         <v>105</v>
       </c>
-      <c r="H146" s="2">
+      <c r="I146" s="2">
         <v>145</v>
       </c>
-      <c r="I146" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J146" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A147" s="2" t="s">
         <v>2</v>
       </c>
@@ -4715,23 +5065,23 @@
       <c r="D147" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E147" s="2">
+      <c r="F147" s="2">
         <v>513</v>
       </c>
-      <c r="F147" s="4">
+      <c r="G147" s="4">
         <v>44043.521527777775</v>
       </c>
-      <c r="G147" s="2">
+      <c r="H147" s="2">
         <v>100</v>
       </c>
-      <c r="H147" s="2">
+      <c r="I147" s="2">
         <v>128</v>
       </c>
-      <c r="I147" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J147" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A148" s="2" t="s">
         <v>2</v>
       </c>
@@ -4744,19 +5094,19 @@
       <c r="D148" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E148" s="2">
+      <c r="F148" s="2">
         <v>265</v>
       </c>
-      <c r="F148" s="4">
+      <c r="G148" s="4">
         <v>44043.896527777775</v>
       </c>
-      <c r="G148" s="2">
+      <c r="H148" s="2">
         <v>111</v>
       </c>
-      <c r="H148" s="2">
+      <c r="I148" s="2">
         <v>129</v>
       </c>
-      <c r="I148" s="2" t="s">
+      <c r="J148" s="2" t="s">
         <v>4</v>
       </c>
     </row>
